--- a/templates/listaRecursos.xlsx
+++ b/templates/listaRecursos.xlsx
@@ -35,13 +35,13 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>${table:codigo}</t>
-  </si>
-  <si>
-    <t>${table:name}</t>
-  </si>
-  <si>
-    <t>${table:rateHora}</t>
+    <t>${table:people.codigo}</t>
+  </si>
+  <si>
+    <t>${table:people.name}</t>
+  </si>
+  <si>
+    <t>${table:people.rateHora}</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/listaRecursos.xlsx
+++ b/templates/listaRecursos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dados\Desenvolvimento\Web\TarefasApp\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao\WebstormProjects\TarefasApp\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>${table:people.codigo}</t>
   </si>
   <si>
@@ -42,6 +33,15 @@
   </si>
   <si>
     <t>${table:people.rateHora}</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>rateHora</t>
   </si>
 </sst>
 </file>
@@ -369,36 +369,36 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/templates/listaRecursos.xlsx
+++ b/templates/listaRecursos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>${table:people.codigo}</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>rateHora</t>
+  </si>
+  <si>
+    <t>nivel</t>
+  </si>
+  <si>
+    <t>${table:people.nivel}</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -379,7 +385,7 @@
     <col min="3" max="3" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -389,8 +395,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,6 +408,9 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
